--- a/inst/plots.xlsx
+++ b/inst/plots.xlsx
@@ -14,19 +14,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">desc</t>
+    <t xml:space="preserve">bla</t>
   </si>
   <si>
-    <t xml:space="preserve">bam</t>
+    <t xml:space="preserve">1: left</t>
   </si>
   <si>
-    <t xml:space="preserve">asdlfkj</t>
+    <t xml:space="preserve">2: center</t>
   </si>
   <si>
-    <t xml:space="preserve">Iris Blue</t>
+    <t xml:space="preserve">3: rotateUp</t>
   </si>
   <si>
-    <t xml:space="preserve">Iris stuff</t>
+    <t xml:space="preserve">4: rotateDown</t>
   </si>
 </sst>
 </file>
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -48,6 +48,11 @@
       <name val="Calibri"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -57,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,18 +70,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="255" horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,9 +115,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">5</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
     <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="4187952" cy="2871216"/>
@@ -104,96 +130,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
-      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
-      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="5577840"/>
-    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="2" name="Picture 2"/>
-        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:col>
-      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
-      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="3593592"/>
-    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="3" name="Picture 3"/>
-        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:col>
-      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
-      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="5577840"/>
-    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="4" name="Picture 4"/>
-        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -489,6 +425,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
@@ -498,35 +437,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="53.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="82.8282" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="82.8282" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="62.36596" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="59.5275590551181" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" ht="59.5275590551181" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" ht="59.5275590551181" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="297.108" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="4" ht="59.5275590551181" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="461.16" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="5" ht="59.5275590551181" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" ht="237.384" customHeight="1">
+      <c r="A6" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToWidth="1" fitToHeight="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/plots.xlsx
+++ b/inst/plots.xlsx
@@ -14,19 +14,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">bla</t>
+    <t xml:space="preserve">desc</t>
   </si>
   <si>
-    <t xml:space="preserve">1: left</t>
+    <t xml:space="preserve">bam</t>
   </si>
   <si>
-    <t xml:space="preserve">2: center</t>
+    <t xml:space="preserve">asdlfkj</t>
   </si>
   <si>
-    <t xml:space="preserve">3: rotateUp</t>
+    <t xml:space="preserve">Iris Blue</t>
   </si>
   <si>
-    <t xml:space="preserve">4: rotateDown</t>
+    <t xml:space="preserve">Iris stuff</t>
   </si>
 </sst>
 </file>
@@ -88,13 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" horizontal="right" vertical="center" wrapText="1"/>
@@ -115,9 +112,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">5</xdr:row>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
     <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="4187952" cy="2871216"/>
@@ -130,6 +127,96 @@
       </xdr:nvPicPr>
       <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="5577840"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="2" name="Picture 2"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="3593592"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="3" name="Picture 3"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="5577840"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="4" name="Picture 4"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -437,36 +524,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="62.36596" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="53.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="82.8282" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="82.8282" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="59.5275590551181" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="59.5275590551181" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="59.5275590551181" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="59.5275590551181" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="2" ht="297.108" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="5" ht="59.5275590551181" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="3" ht="461.16" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" ht="237.384" customHeight="1">
-      <c r="A6" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/plots.xlsx
+++ b/inst/plots.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plots" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -117,7 +117,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">1</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="4187952" cy="2871216"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="4462272" cy="3593592"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
@@ -147,7 +147,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5577840" cy="5577840"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="4462272" cy="5577840"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="2" name="Picture 2"/>
@@ -524,8 +524,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="53.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="82.8282" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="16.61" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="66.40456" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="82.8282" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
